--- a/medicine/Pharmacie/Classe_ATC_S02/Classe_ATC_S02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_S02/Classe_ATC_S02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC S02, dénommée « Médicaments otologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique S de la classification, intitulé « Organes sensoriels ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC S02, dénommée « Médicaments otologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QS02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique S de la classification, intitulé « Organes sensoriels ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S02AA Anti-infectieux
-S02AA01 Chloramphénicol
+          <t>S02AA Anti-infectieux</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S02AA01 Chloramphénicol
 S02AA02 Nitrofural (en)
 S02AA03 Acide borique
 S02AA04 Aluminium acétotartrate (en)
@@ -561,8 +578,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>S02BA Corticoïdes
-S02BA01 Hydrocortisone
+          <t>S02BA Corticoïdes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S02BA01 Hydrocortisone
 S02BA03 Prednisolone
 S02BA06 Dexaméthasone
 S02BA07 Bétaméthasone
@@ -597,8 +619,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>S02CA Corticoïdes et anti-infectieux en association
-S02CA01 Prednisolone et anti-infectieux
+          <t>S02CA Corticoïdes et anti-infectieux en association</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S02CA01 Prednisolone et anti-infectieux
 S02CA02 Flumétasone (en) et anti-infectieux
 S02CA03 Hydrocortisone et anti-infectieux
 S02CA04 Triamcinolone et anti-infectieux
@@ -636,15 +663,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">S02DA Analgésiques et anesthésiques
-S02DA01 Lidocaïne
+          <t>S02DA Analgésiques et anesthésiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S02DA01 Lidocaïne
 S02DA02 Cocaïne
 S02DA03 Phénazone
 S02DA04 Cinchocaïne (en)
-S02DA30 Associations
-S02DC Préparations indifférentes
-Vide.
-</t>
+S02DA30 Associations</t>
         </is>
       </c>
     </row>
@@ -669,13 +698,55 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>S02D Autres médicaments otologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>S02DC Préparations indifférentes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_S02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_S02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>QS02Q Antiparasitaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>QS02QA Antiparasitaires
-« QS02QA01 » Lindane
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>QS02QA Antiparasitaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« QS02QA01 » Lindane
 « QS02QA02 » Sulfirame
 « QS02QA03 » Ivermectine
 « QS02QA51 » Lindane, associations</t>
